--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB310FE5-6160-4934-8227-E2D8015ECFD3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A858861-9A5C-47F7-8BE0-FE6A83882505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A858861-9A5C-47F7-8BE0-FE6A83882505}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD341E36-CC40-48BC-BAD4-14A3FFEB0279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
     <sheet name="Belgium" sheetId="11" r:id="rId2"/>
+    <sheet name="Denmark" sheetId="22" r:id="rId3"/>
+    <sheet name="Sweden" sheetId="23" r:id="rId4"/>
+    <sheet name="Norway" sheetId="24" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -82,6 +85,24 @@
   </si>
   <si>
     <t>NGC-3445</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-3446/T2008</t>
+  </si>
+  <si>
+    <t>Sweden Market</t>
+  </si>
+  <si>
+    <t>NGC-3465/T2023</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-3464/T1920</t>
   </si>
 </sst>
 </file>
@@ -608,7 +629,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44514F-4CC4-48ED-BF22-A9302AF78CC7}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:A12"/>
     </sheetView>
   </sheetViews>
@@ -709,4 +730,319 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D73F46-5310-4F68-8575-A5BA28C3A3AD}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76336AEF-E1B6-4532-B286-3914A2709D56}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972481CE-956A-4851-B8B9-A0E3EC805B5D}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD341E36-CC40-48BC-BAD4-14A3FFEB0279}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9723A50-7C52-4A76-9345-7767064A0D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Denmark" sheetId="22" r:id="rId3"/>
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
+    <sheet name="Italy" sheetId="25" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>NGC-3464/T1920</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3443/T1971/T1927/T1945/T1959</t>
   </si>
 </sst>
 </file>
@@ -946,8 +953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972481CE-956A-4851-B8B9-A0E3EC805B5D}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1045,4 +1052,109 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC74DF6-069E-4C74-8E73-091DCB561933}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9723A50-7C52-4A76-9345-7767064A0D89}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207467A6-F7D4-42E1-BD07-741ACA47E76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sweden" sheetId="23" r:id="rId4"/>
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
     <sheet name="Italy" sheetId="25" r:id="rId6"/>
+    <sheet name="Spain" sheetId="26" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>NGC-3443/T1971/T1927/T1945/T1959</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3442/T2129</t>
   </si>
 </sst>
 </file>
@@ -1058,6 +1065,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC74DF6-069E-4C74-8E73-091DCB561933}">
   <dimension ref="A1:D12"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1B918E-5194-4940-B44F-2FE20ABBD27B}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1081,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1098,12 +1210,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{207467A6-F7D4-42E1-BD07-741ACA47E76F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD19C8F-07D3-43F7-8906-9E61FAF0CB5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -20,6 +20,8 @@
     <sheet name="Norway" sheetId="24" r:id="rId5"/>
     <sheet name="Italy" sheetId="25" r:id="rId6"/>
     <sheet name="Spain" sheetId="26" r:id="rId7"/>
+    <sheet name="Romania" sheetId="27" r:id="rId8"/>
+    <sheet name="Slovakia" sheetId="28" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +119,18 @@
   </si>
   <si>
     <t>NGC-3442/T2129</t>
+  </si>
+  <si>
+    <t>Romania Market</t>
+  </si>
+  <si>
+    <t>NGC-4307/T3537/T3551</t>
+  </si>
+  <si>
+    <t>NGC-4306/T3564/T3576</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1184,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B1B918E-5194-4940-B44F-2FE20ABBD27B}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF99351-41AC-403D-87A8-E006335BB6C0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1193,7 +1312,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1215,7 +1334,112 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8034327-F8FB-43A6-9629-1590563801F4}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD19C8F-07D3-43F7-8906-9E61FAF0CB5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1DA688-A9DB-498E-BE40-301B73F026B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Spain" sheetId="26" r:id="rId7"/>
     <sheet name="Romania" sheetId="27" r:id="rId8"/>
     <sheet name="Slovakia" sheetId="28" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="29" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3594/T3619/T3625/T3636/T3647</t>
   </si>
 </sst>
 </file>
@@ -653,6 +660,111 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEE6F8-A508-42FF-83B8-B057AB32CCAB}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B44514F-4CC4-48ED-BF22-A9302AF78CC7}">
   <dimension ref="A1:D12"/>
@@ -1394,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8034327-F8FB-43A6-9629-1590563801F4}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
+++ b/Test Data/FC_Gallery_FC1D2_AttachedFunctionality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1DA688-A9DB-498E-BE40-301B73F026B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88CAF85-BB8A-471A-8027-AD85D56CD2D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="21" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>NGC-4308/T3594/T3619/T3625/T3636/T3647</t>
+  </si>
+  <si>
+    <t>NGC-3003/ T1240/T1246/T1255/T3835</t>
   </si>
 </sst>
 </file>
@@ -561,14 +564,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83DC885B-92D8-4F9F-884A-177C703FCDD4}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="41.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -605,7 +608,9 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -664,7 +669,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBBEE6F8-A508-42FF-83B8-B057AB32CCAB}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
